--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D1.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184E5581-B185-4629-B118-79090A668190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86FD8FE-0568-4700-BEAF-1C2CB8E4E787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Keyword</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Gaap Source Object Profile</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>TC_SM_FOU_ListView_D1</t>
   </si>
 </sst>
 </file>
@@ -184,12 +190,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB4CBBA-6B11-4753-932F-7C678298ABFC}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,27 +565,25 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -584,7 +591,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -597,14 +604,23 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -613,6 +629,11 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -625,7 +646,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
